--- a/biology/Écologie/Institut_Max-Planck_d'écologie_chimique/Institut_Max-Planck_d'écologie_chimique.xlsx
+++ b/biology/Écologie/Institut_Max-Planck_d'écologie_chimique/Institut_Max-Planck_d'écologie_chimique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_Max-Planck_d%27%C3%A9cologie_chimique</t>
+          <t>Institut_Max-Planck_d'écologie_chimique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Institut Max-Planck d'écologie chimique (en allemand : Max-Planck-Institut für chemische Ökologie) est un institut de recherche extra-universitaire dépendant de la Société Max-Planck situé dans le Beutenberg Campus à Iéna, ayant pour objet l'écologie chimique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Institut_Max-Planck_d%27%C3%A9cologie_chimique</t>
+          <t>Institut_Max-Planck_d'écologie_chimique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Constitution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La société Max-Planck créé en mars 1996 l'institut de recherches fondamentales. L'objet de la recherche est l'étude des relations entre les plantes, les insectes qui mangent ces plantes et leur environnement, en particulier sur l'interaction chimique, d'où le nom de la discipline.
 Environ 175 scientifiques, y compris des doctorants et les étudiants, travaillent dans cinq départements et trois groupes de recherche.
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Institut_Max-Planck_d%27%C3%A9cologie_chimique</t>
+          <t>Institut_Max-Planck_d'écologie_chimique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,7 +569,9 @@
           <t>International Max Planck Research School (IMPRS)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le MPI d'écologie chimique participe au International Max Planck Research School of Ecological Enteractions with Molecular and Chemical Techniques. D'autres partenaires de l'IMPRS sont l'université d'Iéna, le Leibniz-Institut für Naturstoff-Forschung und Infektionsbiologie et l'Institut Leibniz de recherches sur la génétique végétale et les plantes cultivées. L'IMPRS est un graduate school dirigé par Sarah O'Connor.
 </t>
